--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf1-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf1-Bmpr2.xlsx
@@ -82,22 +82,22 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Gdf1</t>
+  </si>
+  <si>
+    <t>Bmpr2</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Gdf1</t>
-  </si>
-  <si>
-    <t>Bmpr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -549,10 +549,10 @@
         <v>0.004356</v>
       </c>
       <c r="I2">
-        <v>0.0372479605971987</v>
+        <v>0.0275626423690205</v>
       </c>
       <c r="J2">
-        <v>0.04082359446313599</v>
+        <v>0.02947285804177352</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.890007</v>
+        <v>45.1830845</v>
       </c>
       <c r="N2">
-        <v>95.78001399999999</v>
+        <v>90.366169</v>
       </c>
       <c r="O2">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="P2">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
       <c r="Q2">
-        <v>0.06953629016399999</v>
+        <v>0.06560583869400001</v>
       </c>
       <c r="R2">
-        <v>0.4172177409839999</v>
+        <v>0.393635032164</v>
       </c>
       <c r="S2">
-        <v>0.009949187979992809</v>
+        <v>0.008221310405912173</v>
       </c>
       <c r="T2">
-        <v>0.00853840486364614</v>
+        <v>0.006954815910882766</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>0.004356</v>
       </c>
       <c r="I3">
-        <v>0.0372479605971987</v>
+        <v>0.0275626423690205</v>
       </c>
       <c r="J3">
-        <v>0.04082359446313599</v>
+        <v>0.02947285804177352</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>24.489942</v>
       </c>
       <c r="N3">
-        <v>73.469826</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O3">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="P3">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
       <c r="Q3">
-        <v>0.035559395784</v>
+        <v>0.03555939578400001</v>
       </c>
       <c r="R3">
-        <v>0.3200345620559999</v>
+        <v>0.3200345620560001</v>
       </c>
       <c r="S3">
-        <v>0.005087805407443792</v>
+        <v>0.004456079464977332</v>
       </c>
       <c r="T3">
-        <v>0.006549540905784746</v>
+        <v>0.00565442931230811</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>0.004356</v>
       </c>
       <c r="I4">
-        <v>0.0372479605971987</v>
+        <v>0.0275626423690205</v>
       </c>
       <c r="J4">
-        <v>0.04082359446313599</v>
+        <v>0.02947285804177352</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.62554866666667</v>
+        <v>20.755341</v>
       </c>
       <c r="N4">
-        <v>61.876646</v>
+        <v>62.26602299999999</v>
       </c>
       <c r="O4">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="P4">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
       <c r="Q4">
-        <v>0.029948296664</v>
+        <v>0.030136755132</v>
       </c>
       <c r="R4">
-        <v>0.269534669976</v>
+        <v>0.271230796188</v>
       </c>
       <c r="S4">
-        <v>0.004284974543335454</v>
+        <v>0.00377654829965306</v>
       </c>
       <c r="T4">
-        <v>0.005516055313507373</v>
+        <v>0.004792155430067995</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>0.004356</v>
       </c>
       <c r="I5">
-        <v>0.0372479605971987</v>
+        <v>0.0275626423690205</v>
       </c>
       <c r="J5">
-        <v>0.04082359446313599</v>
+        <v>0.02947285804177352</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.0437125</v>
+        <v>26.3069545</v>
       </c>
       <c r="N5">
-        <v>64.087425</v>
+        <v>52.613909</v>
       </c>
       <c r="O5">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="P5">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
       <c r="Q5">
-        <v>0.04652747055</v>
+        <v>0.03819769793400001</v>
       </c>
       <c r="R5">
-        <v>0.2791648233</v>
+        <v>0.229186187604</v>
       </c>
       <c r="S5">
-        <v>0.00665710738441415</v>
+        <v>0.004786694869818107</v>
       </c>
       <c r="T5">
-        <v>0.005713137412138583</v>
+        <v>0.004049303577834952</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -797,10 +797,10 @@
         <v>0.004356</v>
       </c>
       <c r="I6">
-        <v>0.0372479605971987</v>
+        <v>0.0275626423690205</v>
       </c>
       <c r="J6">
-        <v>0.04082359446313599</v>
+        <v>0.02947285804177352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.40337933333334</v>
+        <v>17.34473466666667</v>
       </c>
       <c r="N6">
-        <v>97.21013800000001</v>
+        <v>52.034204</v>
       </c>
       <c r="O6">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="P6">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
       <c r="Q6">
-        <v>0.04704970679200001</v>
+        <v>0.02518455473600001</v>
       </c>
       <c r="R6">
-        <v>0.423447361128</v>
+        <v>0.226660992624</v>
       </c>
       <c r="S6">
-        <v>0.006731828462132977</v>
+        <v>0.003155969743563042</v>
       </c>
       <c r="T6">
-        <v>0.008665894693802328</v>
+        <v>0.004004687970000362</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>0.004356</v>
       </c>
       <c r="I7">
-        <v>0.0372479605971987</v>
+        <v>0.0275626423690205</v>
       </c>
       <c r="J7">
-        <v>0.04082359446313599</v>
+        <v>0.02947285804177352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.83893633333333</v>
+        <v>17.400077</v>
       </c>
       <c r="N7">
-        <v>65.51680899999999</v>
+        <v>52.200231</v>
       </c>
       <c r="O7">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="P7">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
       <c r="Q7">
-        <v>0.031710135556</v>
+        <v>0.025264911804</v>
       </c>
       <c r="R7">
-        <v>0.285391220004</v>
+        <v>0.227384206236</v>
       </c>
       <c r="S7">
-        <v>0.004537056819879526</v>
+        <v>0.003166039585096786</v>
       </c>
       <c r="T7">
-        <v>0.005840561274256811</v>
+        <v>0.004017465840679334</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.020486</v>
       </c>
       <c r="I8">
-        <v>0.2627623005489713</v>
+        <v>0.1944381169324222</v>
       </c>
       <c r="J8">
-        <v>0.1919908531156575</v>
+        <v>0.1386090380724913</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.890007</v>
+        <v>45.1830845</v>
       </c>
       <c r="N8">
-        <v>95.78001399999999</v>
+        <v>90.366169</v>
       </c>
       <c r="O8">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="P8">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
       <c r="Q8">
-        <v>0.490537341701</v>
+        <v>0.4628103345335</v>
       </c>
       <c r="R8">
-        <v>1.962149366804</v>
+        <v>1.851241338134</v>
       </c>
       <c r="S8">
-        <v>0.07018562842910905</v>
+        <v>0.05799647554253332</v>
       </c>
       <c r="T8">
-        <v>0.040155592754053</v>
+        <v>0.03270807133846288</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.020486</v>
       </c>
       <c r="I9">
-        <v>0.2627623005489713</v>
+        <v>0.1944381169324222</v>
       </c>
       <c r="J9">
-        <v>0.1919908531156575</v>
+        <v>0.1386090380724913</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,13 +998,13 @@
         <v>24.489942</v>
       </c>
       <c r="N9">
-        <v>73.469826</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O9">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="P9">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
       <c r="Q9">
         <v>0.250850475906</v>
@@ -1013,10 +1013,10 @@
         <v>1.505102855436</v>
       </c>
       <c r="S9">
-        <v>0.03589145371105149</v>
+        <v>0.0314350013496989</v>
       </c>
       <c r="T9">
-        <v>0.03080208792376179</v>
+        <v>0.02659243317078602</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.020486</v>
       </c>
       <c r="I10">
-        <v>0.2627623005489713</v>
+        <v>0.1944381169324222</v>
       </c>
       <c r="J10">
-        <v>0.1919908531156575</v>
+        <v>0.1386090380724913</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.62554866666667</v>
+        <v>20.755341</v>
       </c>
       <c r="N10">
-        <v>61.876646</v>
+        <v>62.26602299999999</v>
       </c>
       <c r="O10">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="P10">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
       <c r="Q10">
-        <v>0.2112674949926667</v>
+        <v>0.212596957863</v>
       </c>
       <c r="R10">
-        <v>1.267604969956</v>
+        <v>1.275581747178</v>
       </c>
       <c r="S10">
-        <v>0.03022795747065087</v>
+        <v>0.02664131145547265</v>
       </c>
       <c r="T10">
-        <v>0.02594166876779432</v>
+        <v>0.02253721215343731</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.020486</v>
       </c>
       <c r="I11">
-        <v>0.2627623005489713</v>
+        <v>0.1944381169324222</v>
       </c>
       <c r="J11">
-        <v>0.1919908531156575</v>
+        <v>0.1386090380724913</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>32.0437125</v>
+        <v>26.3069545</v>
       </c>
       <c r="N11">
-        <v>64.087425</v>
+        <v>52.613909</v>
       </c>
       <c r="O11">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="P11">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
       <c r="Q11">
-        <v>0.3282237471375</v>
+        <v>0.2694621349435</v>
       </c>
       <c r="R11">
-        <v>1.31289498855</v>
+        <v>1.077848539774</v>
       </c>
       <c r="S11">
-        <v>0.04696194968219982</v>
+        <v>0.03376729721180914</v>
       </c>
       <c r="T11">
-        <v>0.02686853375231199</v>
+        <v>0.01904362559585097</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1169,10 +1169,10 @@
         <v>0.020486</v>
       </c>
       <c r="I12">
-        <v>0.2627623005489713</v>
+        <v>0.1944381169324222</v>
       </c>
       <c r="J12">
-        <v>0.1919908531156575</v>
+        <v>0.1386090380724913</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>32.40337933333334</v>
+        <v>17.34473466666667</v>
       </c>
       <c r="N12">
-        <v>97.21013800000001</v>
+        <v>52.034204</v>
       </c>
       <c r="O12">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="P12">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
       <c r="Q12">
-        <v>0.3319078145113334</v>
+        <v>0.1776621171906667</v>
       </c>
       <c r="R12">
-        <v>1.991446887068</v>
+        <v>1.065972703144</v>
       </c>
       <c r="S12">
-        <v>0.04748906262922045</v>
+        <v>0.02226349730255939</v>
       </c>
       <c r="T12">
-        <v>0.04075516958155062</v>
+        <v>0.01883380113715046</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1231,10 +1231,10 @@
         <v>0.020486</v>
       </c>
       <c r="I13">
-        <v>0.2627623005489713</v>
+        <v>0.1944381169324222</v>
       </c>
       <c r="J13">
-        <v>0.1919908531156575</v>
+        <v>0.1386090380724913</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.83893633333333</v>
+        <v>17.400077</v>
       </c>
       <c r="N13">
-        <v>65.51680899999999</v>
+        <v>52.200231</v>
       </c>
       <c r="O13">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="P13">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
       <c r="Q13">
-        <v>0.2236962248623333</v>
+        <v>0.178228988711</v>
       </c>
       <c r="R13">
-        <v>1.342177349174</v>
+        <v>1.069373932266</v>
       </c>
       <c r="S13">
-        <v>0.03200624862673966</v>
+        <v>0.02233453407034875</v>
       </c>
       <c r="T13">
-        <v>0.02746780033618573</v>
+        <v>0.01889389467680368</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.027287</v>
+        <v>0.040985</v>
       </c>
       <c r="H14">
-        <v>0.081861</v>
+        <v>0.122955</v>
       </c>
       <c r="I14">
-        <v>0.69998973885383</v>
+        <v>0.7779992406985573</v>
       </c>
       <c r="J14">
-        <v>0.7671855524212066</v>
+        <v>0.8319181038857351</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.890007</v>
+        <v>45.1830845</v>
       </c>
       <c r="N14">
-        <v>95.78001399999999</v>
+        <v>90.366169</v>
       </c>
       <c r="O14">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="P14">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
       <c r="Q14">
-        <v>1.306774621009</v>
+        <v>1.8518287182325</v>
       </c>
       <c r="R14">
-        <v>7.840647726054</v>
+        <v>11.110972309395</v>
       </c>
       <c r="S14">
-        <v>0.1869721022107877</v>
+        <v>0.2320595089437399</v>
       </c>
       <c r="T14">
-        <v>0.1604596787288652</v>
+        <v>0.196310695666343</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.027287</v>
+        <v>0.040985</v>
       </c>
       <c r="H15">
-        <v>0.081861</v>
+        <v>0.122955</v>
       </c>
       <c r="I15">
-        <v>0.69998973885383</v>
+        <v>0.7779992406985573</v>
       </c>
       <c r="J15">
-        <v>0.7671855524212066</v>
+        <v>0.8319181038857351</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>24.489942</v>
       </c>
       <c r="N15">
-        <v>73.469826</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O15">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="P15">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
       <c r="Q15">
-        <v>0.668257047354</v>
+        <v>1.00372027287</v>
       </c>
       <c r="R15">
-        <v>6.014313426186</v>
+        <v>9.033482455830001</v>
       </c>
       <c r="S15">
-        <v>0.09561359927886967</v>
+        <v>0.1257799014270633</v>
       </c>
       <c r="T15">
-        <v>0.1230835555758598</v>
+        <v>0.1596052240805426</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.027287</v>
+        <v>0.040985</v>
       </c>
       <c r="H16">
-        <v>0.081861</v>
+        <v>0.122955</v>
       </c>
       <c r="I16">
-        <v>0.69998973885383</v>
+        <v>0.7779992406985573</v>
       </c>
       <c r="J16">
-        <v>0.7671855524212066</v>
+        <v>0.8319181038857351</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.62554866666667</v>
+        <v>20.755341</v>
       </c>
       <c r="N16">
-        <v>61.876646</v>
+        <v>62.26602299999999</v>
       </c>
       <c r="O16">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="P16">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
       <c r="Q16">
-        <v>0.5628093464673334</v>
+        <v>0.8506576508849999</v>
       </c>
       <c r="R16">
-        <v>5.065284118206001</v>
+        <v>7.655918857964998</v>
       </c>
       <c r="S16">
-        <v>0.08052623992010645</v>
+        <v>0.106599057893444</v>
       </c>
       <c r="T16">
-        <v>0.1036615711705755</v>
+        <v>0.1352661778934826</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.027287</v>
+        <v>0.040985</v>
       </c>
       <c r="H17">
-        <v>0.081861</v>
+        <v>0.122955</v>
       </c>
       <c r="I17">
-        <v>0.69998973885383</v>
+        <v>0.7779992406985573</v>
       </c>
       <c r="J17">
-        <v>0.7671855524212066</v>
+        <v>0.8319181038857351</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>32.0437125</v>
+        <v>26.3069545</v>
       </c>
       <c r="N17">
-        <v>64.087425</v>
+        <v>52.613909</v>
       </c>
       <c r="O17">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="P17">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
       <c r="Q17">
-        <v>0.8743767829875</v>
+        <v>1.0781905301825</v>
       </c>
       <c r="R17">
-        <v>5.246260697925</v>
+        <v>6.469143181094999</v>
       </c>
       <c r="S17">
-        <v>0.1251050201091659</v>
+        <v>0.1351120449307818</v>
       </c>
       <c r="T17">
-        <v>0.1073652758712297</v>
+        <v>0.1142980076704996</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.027287</v>
+        <v>0.040985</v>
       </c>
       <c r="H18">
-        <v>0.081861</v>
+        <v>0.122955</v>
       </c>
       <c r="I18">
-        <v>0.69998973885383</v>
+        <v>0.7779992406985573</v>
       </c>
       <c r="J18">
-        <v>0.7671855524212066</v>
+        <v>0.8319181038857351</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>32.40337933333334</v>
+        <v>17.34473466666667</v>
       </c>
       <c r="N18">
-        <v>97.21013800000001</v>
+        <v>52.034204</v>
       </c>
       <c r="O18">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="P18">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
       <c r="Q18">
-        <v>0.8841910118686669</v>
+        <v>0.7108739503133333</v>
       </c>
       <c r="R18">
-        <v>7.957719106818002</v>
+        <v>6.39786555282</v>
       </c>
       <c r="S18">
-        <v>0.1265092308858282</v>
+        <v>0.08908224513769371</v>
       </c>
       <c r="T18">
-        <v>0.1628555568249202</v>
+        <v>0.1130386614672623</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.027287</v>
+        <v>0.040985</v>
       </c>
       <c r="H19">
-        <v>0.081861</v>
+        <v>0.122955</v>
       </c>
       <c r="I19">
-        <v>0.69998973885383</v>
+        <v>0.7779992406985573</v>
       </c>
       <c r="J19">
-        <v>0.7671855524212066</v>
+        <v>0.8319181038857351</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.83893633333333</v>
+        <v>17.400077</v>
       </c>
       <c r="N19">
-        <v>65.51680899999999</v>
+        <v>52.200231</v>
       </c>
       <c r="O19">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="P19">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
       <c r="Q19">
-        <v>0.5959190557276667</v>
+        <v>0.713142155845</v>
       </c>
       <c r="R19">
-        <v>5.363271501549</v>
+        <v>6.418279402604999</v>
       </c>
       <c r="S19">
-        <v>0.08526354644907207</v>
+        <v>0.08936648236583455</v>
       </c>
       <c r="T19">
-        <v>0.109759914249756</v>
+        <v>0.113399337107605</v>
       </c>
     </row>
   </sheetData>
